--- a/articulo 1 XAI/Reunion JA JL 2024 11 19/Ejemplo SMOTE.xlsx
+++ b/articulo 1 XAI/Reunion JA JL 2024 11 19/Ejemplo SMOTE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\Doctorado EOMA\Cafee\articulo 1 XAI\Reunion JA JL 2024 11 19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/articulo 1 XAI/Reunion JA JL 2024 11 19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB495DB8-7E97-41F4-92C9-8539FD7672F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{BB495DB8-7E97-41F4-92C9-8539FD7672F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF79589-766D-4F3A-A49C-A4F4C87C79BA}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{7EDB09FF-D8ED-4CA6-807F-A695B2B2FD47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDB09FF-D8ED-4CA6-807F-A695B2B2FD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="13">
   <si>
     <t>Original data</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Combinaciones efficientes</t>
+  </si>
+  <si>
+    <t>DMU</t>
+  </si>
+  <si>
+    <t>5 porque hay 5 variables</t>
+  </si>
+  <si>
+    <t>combinacion de las 5</t>
+  </si>
+  <si>
+    <t>lambda por cada vble</t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,12 +101,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,10 +133,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,18 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D7FD47-3E77-420E-B245-69834CA89844}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +504,58 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="F2" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>13</v>
+      </c>
+      <c r="U2">
+        <v>14</v>
+      </c>
+      <c r="V2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -489,53 +566,56 @@
         <f>B3/B1</f>
         <v>0.15463917525773196</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="3">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="3">
         <v>17</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="3">
         <v>18</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="3">
         <v>26</v>
       </c>
-      <c r="O3">
+      <c r="P3" s="3">
         <v>36</v>
       </c>
-      <c r="P3">
+      <c r="Q3" s="3">
         <v>46</v>
       </c>
-      <c r="Q3">
+      <c r="R3" s="3">
         <v>56</v>
       </c>
-      <c r="R3">
+      <c r="S3" s="3">
         <v>62</v>
       </c>
-      <c r="S3">
+      <c r="T3" s="3">
         <v>92</v>
       </c>
-      <c r="T3">
+      <c r="U3" s="3">
         <v>93</v>
       </c>
-      <c r="U3">
+      <c r="V3" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,24 +627,72 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -579,11 +707,24 @@
         <f>C7/C1</f>
         <v>0.40127388535031849</v>
       </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -595,58 +736,270 @@
         <v>94</v>
       </c>
       <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="O8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
       <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
       <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="L11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="V11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="L12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="S12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
       <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="T13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="U15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="N16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>B3+45</f>
+        <v>60</v>
+      </c>
       <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="J17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>B4</f>
+        <v>82</v>
+      </c>
       <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
         <v>97</v>
       </c>
+      <c r="L18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
